--- a/invoices/20250910_Invoices-To-Key/Olin-Invoices-2025-09-10.xlsx
+++ b/invoices/20250910_Invoices-To-Key/Olin-Invoices-2025-09-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwinsor/projects/technical-services/invoices/20250910_Invoices-To-Key/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF6CAF-EB67-4243-83F6-72446A8515CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B752D791-0350-2F40-908B-0738692CCFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38060" yWindow="2240" windowWidth="21460" windowHeight="17440" xr2:uid="{421AC8C3-1AE4-254D-B6CC-F0E1F24A67C9}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>34.73</t>
   </si>
   <si>
-    <t>POL-151687 (RNLDS)</t>
+    <t>POL-151687 (KENT)</t>
   </si>
 </sst>
 </file>
@@ -174,15 +174,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35D9E00A-A67D-3C43-8D49-B9E68000CDB6}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35D9E00A-A67D-3C43-8D49-B9E68000CDB6}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F4" xr:uid="{35D9E00A-A67D-3C43-8D49-B9E68000CDB6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0DE8483A-4A18-DB49-9361-4A8BCF6F7DCA}" name="PDF Filename" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00B568C7-5CA3-E14D-AFA6-CDE3E6654871}" name="Invoice Number" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E19DD31A-9311-0643-852B-4FB1855FCF2B}" name="Invoice Date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{878554FA-040B-8241-A228-36866CA28D8D}" name="Vendor" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AC392FA7-01CA-E04E-88E2-13CFE5F9E8DF}" name="POL (Fund)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B0088486-54A8-5A46-8375-25D15F52E780}" name="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0DE8483A-4A18-DB49-9361-4A8BCF6F7DCA}" name="PDF Filename" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00B568C7-5CA3-E14D-AFA6-CDE3E6654871}" name="Invoice Number" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E19DD31A-9311-0643-852B-4FB1855FCF2B}" name="Invoice Date" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{878554FA-040B-8241-A228-36866CA28D8D}" name="Vendor" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AC392FA7-01CA-E04E-88E2-13CFE5F9E8DF}" name="POL (Fund)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B0088486-54A8-5A46-8375-25D15F52E780}" name="Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
